--- a/data/ospree_2019update_cjc.xlsx
+++ b/data/ospree_2019update_cjc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2"/>
+    <workbookView xWindow="1640" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="304">
   <si>
     <t>datasetID</t>
   </si>
@@ -976,9 +976,6 @@
     <t>daystobudburst</t>
   </si>
   <si>
-    <t>fig2</t>
-  </si>
-  <si>
     <t>Picea</t>
   </si>
   <si>
@@ -995,6 +992,12 @@
   </si>
   <si>
     <t>This is an OTC experiment so it studies adult trees in natural conditions and then in 4 levels of warming conditions, plus ambient versus increased CO2 levels</t>
+  </si>
+  <si>
+    <t>fig2d</t>
+  </si>
+  <si>
+    <t>fig2e</t>
   </si>
 </sst>
 </file>
@@ -2807,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
     </sheetView>
@@ -2884,19 +2887,19 @@
         <v>287</v>
       </c>
       <c r="C2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
         <v>299</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>300</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M2" t="s">
+        <v>300</v>
+      </c>
+      <c r="T2" t="s">
         <v>301</v>
-      </c>
-      <c r="M2" t="s">
-        <v>301</v>
-      </c>
-      <c r="T2" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2908,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AH24" sqref="AH24"/>
+    <sheetView tabSelected="1" topLeftCell="N6" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25:X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3131,7 +3134,7 @@
         <v>106.239</v>
       </c>
       <c r="AE2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AF2">
         <v>47.502850000000002</v>
@@ -3199,7 +3202,7 @@
         <v>106.41500000000001</v>
       </c>
       <c r="AE3" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AF3">
         <v>47.502850000000002</v>
@@ -3267,7 +3270,7 @@
         <v>112.214</v>
       </c>
       <c r="AE4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AF4">
         <v>47.502850000000002</v>
@@ -3335,7 +3338,7 @@
         <v>103.251</v>
       </c>
       <c r="AE5" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AF5">
         <v>47.502850000000002</v>
@@ -3403,7 +3406,7 @@
         <v>100.08799999999999</v>
       </c>
       <c r="AE6" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AF6">
         <v>47.502850000000002</v>
@@ -3471,7 +3474,7 @@
         <v>103.60299999999999</v>
       </c>
       <c r="AE7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AF7">
         <v>47.502850000000002</v>
@@ -3539,7 +3542,7 @@
         <v>100.61499999999999</v>
       </c>
       <c r="AE8" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AF8">
         <v>47.502850000000002</v>
@@ -3607,7 +3610,7 @@
         <v>94.287999999999997</v>
       </c>
       <c r="AE9" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AF9">
         <v>47.502850000000002</v>
@@ -3630,10 +3633,10 @@
         <v>288</v>
       </c>
       <c r="D10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" t="s">
         <v>297</v>
-      </c>
-      <c r="E10" t="s">
-        <v>298</v>
       </c>
       <c r="G10" t="s">
         <v>290</v>
@@ -3671,8 +3674,11 @@
       <c r="Z10">
         <v>1</v>
       </c>
+      <c r="AA10">
+        <v>70.725999999999999</v>
+      </c>
       <c r="AE10" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AF10">
         <v>47.502850000000002</v>
@@ -3695,10 +3701,10 @@
         <v>288</v>
       </c>
       <c r="D11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" t="s">
         <v>297</v>
-      </c>
-      <c r="E11" t="s">
-        <v>298</v>
       </c>
       <c r="G11" t="s">
         <v>290</v>
@@ -3736,8 +3742,11 @@
       <c r="Z11">
         <v>1</v>
       </c>
+      <c r="AA11">
+        <v>70.725999999999999</v>
+      </c>
       <c r="AE11" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AF11">
         <v>47.502850000000002</v>
@@ -3760,10 +3769,10 @@
         <v>288</v>
       </c>
       <c r="D12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" t="s">
         <v>297</v>
-      </c>
-      <c r="E12" t="s">
-        <v>298</v>
       </c>
       <c r="G12" t="s">
         <v>290</v>
@@ -3801,8 +3810,11 @@
       <c r="Z12">
         <v>1</v>
       </c>
+      <c r="AA12">
+        <v>64.316000000000003</v>
+      </c>
       <c r="AE12" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AF12">
         <v>47.502850000000002</v>
@@ -3825,10 +3837,10 @@
         <v>288</v>
       </c>
       <c r="D13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" t="s">
         <v>297</v>
-      </c>
-      <c r="E13" t="s">
-        <v>298</v>
       </c>
       <c r="G13" t="s">
         <v>290</v>
@@ -3866,8 +3878,11 @@
       <c r="Z13">
         <v>1</v>
       </c>
+      <c r="AA13">
+        <v>67.734999999999999</v>
+      </c>
       <c r="AE13" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AF13">
         <v>47.502850000000002</v>
@@ -3890,10 +3905,10 @@
         <v>288</v>
       </c>
       <c r="D14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" t="s">
         <v>297</v>
-      </c>
-      <c r="E14" t="s">
-        <v>298</v>
       </c>
       <c r="G14" t="s">
         <v>290</v>
@@ -3931,8 +3946,11 @@
       <c r="Z14">
         <v>1</v>
       </c>
+      <c r="AA14">
+        <v>68.162000000000006</v>
+      </c>
       <c r="AE14" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AF14">
         <v>47.502850000000002</v>
@@ -3955,10 +3973,10 @@
         <v>288</v>
       </c>
       <c r="D15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" t="s">
         <v>297</v>
-      </c>
-      <c r="E15" t="s">
-        <v>298</v>
       </c>
       <c r="G15" t="s">
         <v>290</v>
@@ -3996,8 +4014,11 @@
       <c r="Z15">
         <v>1</v>
       </c>
+      <c r="AA15">
+        <v>64.53</v>
+      </c>
       <c r="AE15" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AF15">
         <v>47.502850000000002</v>
@@ -4020,10 +4041,10 @@
         <v>288</v>
       </c>
       <c r="D16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" t="s">
         <v>297</v>
-      </c>
-      <c r="E16" t="s">
-        <v>298</v>
       </c>
       <c r="G16" t="s">
         <v>290</v>
@@ -4061,8 +4082,11 @@
       <c r="Z16">
         <v>1</v>
       </c>
+      <c r="AA16">
+        <v>64.744</v>
+      </c>
       <c r="AE16" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AF16">
         <v>47.502850000000002</v>
@@ -4085,10 +4109,10 @@
         <v>288</v>
       </c>
       <c r="D17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" t="s">
         <v>297</v>
-      </c>
-      <c r="E17" t="s">
-        <v>298</v>
       </c>
       <c r="G17" t="s">
         <v>290</v>
@@ -4126,8 +4150,11 @@
       <c r="Z17">
         <v>1</v>
       </c>
+      <c r="AA17">
+        <v>61.966000000000001</v>
+      </c>
       <c r="AE17" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AF17">
         <v>47.502850000000002</v>
@@ -4150,10 +4177,10 @@
         <v>288</v>
       </c>
       <c r="D18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" t="s">
         <v>297</v>
-      </c>
-      <c r="E18" t="s">
-        <v>298</v>
       </c>
       <c r="G18" t="s">
         <v>290</v>
@@ -4191,8 +4218,11 @@
       <c r="Z18">
         <v>1</v>
       </c>
+      <c r="AA18">
+        <v>56.624000000000002</v>
+      </c>
       <c r="AE18" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AF18">
         <v>47.502850000000002</v>
@@ -4215,10 +4245,10 @@
         <v>288</v>
       </c>
       <c r="D19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" t="s">
         <v>297</v>
-      </c>
-      <c r="E19" t="s">
-        <v>298</v>
       </c>
       <c r="G19" t="s">
         <v>290</v>
@@ -4256,8 +4286,11 @@
       <c r="Z19">
         <v>1</v>
       </c>
+      <c r="AA19">
+        <v>52.35</v>
+      </c>
       <c r="AE19" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AF19">
         <v>47.502850000000002</v>
